--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,11 +481,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -498,11 +493,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -515,11 +505,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -640,11 +625,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -657,11 +637,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -830,11 +805,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -967,11 +937,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1176,11 +1141,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1217,11 +1177,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1270,11 +1225,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1287,11 +1237,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1328,11 +1273,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1429,11 +1369,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1446,11 +1381,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1631,11 +1561,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1936,11 +1861,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1965,11 +1885,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2042,11 +1957,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2071,11 +1981,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2184,11 +2089,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2213,11 +2113,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2242,11 +2137,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2259,11 +2149,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2276,11 +2161,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2293,11 +2173,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2310,11 +2185,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2327,11 +2197,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2356,11 +2221,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2505,11 +2365,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2570,11 +2425,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2635,11 +2485,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2652,11 +2497,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2669,11 +2509,6 @@
           <t>TBT</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2696,601 +2531,6 @@
       <c r="B181" t="inlineStr">
         <is>
           <t>TBT</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>What is ACORN?</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>About</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>To log out, close the app.</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>upload a local acorn file.</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>The REDCap dataset contains data.</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>The REDCap dataset column names match.</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Clinical data successfully provided.</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Clinical data not provided</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Lab data not provided</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>No .acorn has been generated</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>No .acorn has been saved</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Generate .acorn from clinical and lab data</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Load existing .acorn from cloud</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Load existing .acorn from local file</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Specimens, Isolates</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Blood Culture</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Other Specimens:</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>No deduplication of isolates</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Deduplication by patient-episode</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Deduplication by patient ID</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Use heuristic for time unit</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Display by month</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Display by year</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>All records have an ACORN ID.</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Not all records have an ACORN ID.</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>deleted</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Dữ liệu .acorn được tạo thành công!</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tệp .acorn đã được lưu trên máy chủ.</t>
         </is>
       </c>
     </row>
@@ -406,7 +406,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tệp .acorn không được lưu.</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(1/4) Tải xuống dữ liệu lâm sàng</t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(2/4) Cung cấp dữ liệu phòng thí nghiệm</t>
         </is>
       </c>
     </row>
@@ -442,7 +442,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(3/4) Lưu dữ liệu lâm sàng và dữ liệu phòng thí nghiệm</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(4/4) Lưu tệp .acorn</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(Tùy chọn) Ý kiến:</t>
         </is>
       </c>
     </row>
@@ -481,6 +481,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -493,6 +498,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -505,6 +515,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -514,7 +529,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Các nước tham gia vào nghiên cứu ACORN</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả "orgname" được cung cấp</t>
         </is>
       </c>
     </row>
@@ -538,7 +553,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả "patid" được cung cấp</t>
         </is>
       </c>
     </row>
@@ -550,7 +565,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả "specdate" được cung cấp</t>
         </is>
       </c>
     </row>
@@ -562,7 +577,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tât cả "specdate" là ngày hôm này hoặc trước ngày hôm nay</t>
         </is>
       </c>
     </row>
@@ -574,7 +589,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả "specgroup" được cung cấp</t>
         </is>
       </c>
     </row>
@@ -586,7 +601,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả "specid" được cung cấp</t>
         </is>
       </c>
     </row>
@@ -598,7 +613,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả các ngày thu tuyển của bệnh nhân HAI phải tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
         </is>
       </c>
     </row>
@@ -610,7 +625,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tất cả các vi sinh vật khác</t>
         </is>
       </c>
     </row>
@@ -625,6 +640,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -637,6 +657,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -646,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>và tạo nhật ký thu tuyển.</t>
         </is>
       </c>
     </row>
@@ -658,7 +683,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đang cố gắng kết nối.</t>
         </is>
       </c>
     </row>
@@ -670,7 +695,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mẫu cấy máu thu thập trong vòng 24h sau khi nhập viện (CAI)/ khởi phát triệu chứng (HAI)</t>
         </is>
       </c>
     </row>
@@ -682,7 +707,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tạp nhiễm cấy máu</t>
         </is>
       </c>
     </row>
@@ -694,7 +719,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Nhiễm trùng huyết (BSI)</t>
         </is>
       </c>
     </row>
@@ -706,7 +731,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tuổi được tính toán nhất quán với "Phân loại tuổi"</t>
         </is>
       </c>
     </row>
@@ -718,7 +743,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tuổi được tính toán không nhất quán với "Phân loại tuổi"</t>
         </is>
       </c>
     </row>
@@ -730,7 +755,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Hủy bỏ</t>
         </is>
       </c>
     </row>
@@ -742,7 +767,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Cần thận trọng khi phiên giải về tỷ lệ và thông tin AMR khi có một số lượng nhỏ ca bệnh hoặc vi khuẩn được phân lập: ước tính điểm có thể không đáng tin cậy.</t>
         </is>
       </c>
     </row>
@@ -754,7 +779,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kêt quả lâm sàng và ngày 28 là nhất quán</t>
         </is>
       </c>
     </row>
@@ -766,7 +791,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kết quả lâm sàng và ngày 28 là không nhất quán đối với một số bệnh nhân tử vong</t>
         </is>
       </c>
     </row>
@@ -778,7 +803,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kết cục lâm sàng</t>
         </is>
       </c>
     </row>
@@ -790,7 +815,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tình trạng kết cục lâm sàng</t>
         </is>
       </c>
     </row>
@@ -805,6 +830,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -814,7 +844,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kết hợp Nhạy cảm + Trung bình</t>
         </is>
       </c>
     </row>
@@ -826,7 +856,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Cân nhắc lưu tệp .acorn trên đám mây vì mục đích bảo mật.</t>
         </is>
       </c>
     </row>
@@ -838,7 +868,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không thể kết nối với máy chủ. Vui lòng kiểm tra kết nối internet</t>
         </is>
       </c>
     </row>
@@ -850,7 +880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lỗi nghiêm trọng với dữ liệu lâm sàng.</t>
         </is>
       </c>
     </row>
@@ -862,7 +892,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kết quả nuôi cấy cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
@@ -874,7 +904,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Quản lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -886,7 +916,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Ngày thu tuyển</t>
         </is>
       </c>
     </row>
@@ -898,7 +928,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Ngày 28</t>
         </is>
       </c>
     </row>
@@ -910,7 +940,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tình trạng ngày 28</t>
         </is>
       </c>
     </row>
@@ -922,7 +952,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Chẩn đoán tại thời điểm thu tuyển</t>
         </is>
       </c>
     </row>
@@ -937,6 +967,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -946,7 +981,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Phân bố thu tuyển</t>
         </is>
       </c>
     </row>
@@ -958,7 +993,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tải xuống Sổ thu tuyển (.xlsx)</t>
         </is>
       </c>
     </row>
@@ -970,7 +1005,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Điều trị kháng sinh theo kinh nghiệm</t>
         </is>
       </c>
     </row>
@@ -982,7 +1017,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Thu tuyển</t>
         </is>
       </c>
     </row>
@@ -994,7 +1029,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Thu tuyển theo (loại) Khoa</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1041,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Thu tuyển với mẫu cấy máu</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1053,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lỗi khi kết hợp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1065,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mỗi Phiếu dữ liệu ngày 28 (F04) khớp chính xác với một bệnh nhân thu tuyển (F01).</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1077,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mỗi phiếu ra viện (F03) đều có phiếu nhiễm trùng (F02) tương ứng</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1089,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mỗi phiếu xuất viện (F03) có một Phiếu thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1101,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mỗi Phiếu đợt nhiễm trùng (F02) có một phiếu thu tuyển tương ứng (F01)</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1113,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tên tệp:</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1125,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Trang đầu tiên là nhật ký thu tuyển được truy xuất từ REDCap (theo bảng liền kề). Trang thứ hai là danh sách tất cả các yếu tố được gắn cờ cảnh báo.</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1137,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Theo dõi</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1149,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>từ mẫu cấy máu</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1161,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tạo tệp .acorn</t>
         </is>
       </c>
     </row>
@@ -1141,6 +1176,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1150,7 +1190,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đang tạo .acorn</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1202,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lấy dữ liệu từ REDCap</t>
         </is>
       </c>
     </row>
@@ -1177,6 +1217,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1186,7 +1231,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Cấy ra vi khuẩn/ Cấy không ra vi khuẩn</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1243,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1255,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tỷ lệ hiện mắc HAI</t>
         </is>
       </c>
     </row>
@@ -1225,6 +1270,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1237,6 +1287,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1246,7 +1301,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1313,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Số vi khuẩn cấy được</t>
         </is>
       </c>
     </row>
@@ -1273,6 +1328,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1282,7 +1342,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1354,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Dữ liệu phòng thí nghiệm đã được xử lý thành công!</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1366,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1378,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tập dữ liệu phòng thí nghiệm chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1390,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tập dữ liệu phòng thí nghiệm không chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1402,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Ngôn ngữ</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1414,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đang tải tệp .acorn</t>
         </is>
       </c>
     </row>
@@ -1369,6 +1429,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1381,6 +1446,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1390,7 +1460,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đang tải tệp .acorn được chọn</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1472,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đang tải dữ liệu.</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1484,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đăng nhập</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1496,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Vi sinh vật học</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1508,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1520,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không có dữ liệu .acorn nào được tải.</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1532,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không cấy máu</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1544,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không có kết nối internet.</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1556,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Số lượng mẫu cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1568,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tỷ lệ chiếm chỗ của loại khoa mỗi tháng</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1580,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Cấy máu phát triển một tạp nhiễm tiềm năng</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1592,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Các mẫu cấy ra vi khuẩn</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1604,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>thu tuyển với cấy máu</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1616,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>tác nhân gây bệnh mục tiêu</t>
         </is>
       </c>
     </row>
@@ -1561,6 +1631,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1570,7 +1645,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tổng quan</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1657,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mật khẩu</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1669,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Phân bố tuổi bệnh nhân</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1681,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Bệnh nền của bệnh nhân</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1693,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Thu tuyển bệnh nhân</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1705,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Bệnh nhân được chuyển</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1717,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Hãy đăng nhập</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1729,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Xử lý dữ liệu phòng thí nghiệm.</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1741,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đọc dữ liệu phòng thí nghiệm.</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1753,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1765,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Cài đặt lại bộ lọc thu tuyển</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1777,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1789,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kháng Carbapenems theo thời gian</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1801,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kháng Fluoroquinolones theo thời gian</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1813,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kháng Oxacillin theo thời gian</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1825,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kháng Penicillin G -meningitis theo thời gian</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1837,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kháng Penicillin G theo thời gian</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1849,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1861,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lưu tệp .acorn</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1873,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lưu dữ liệu acorn</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1885,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lưu trên máy chủ</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1897,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Xem Phân tích theo Khoa</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1909,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Xem theo Tuần</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1921,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
         </is>
       </c>
     </row>
@@ -1861,6 +1936,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1870,7 +1950,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Hiển thị các bệnh nền</t>
         </is>
       </c>
     </row>
@@ -1885,6 +1965,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1894,7 +1979,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1991,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
         </is>
       </c>
     </row>
@@ -1918,7 +2003,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
@@ -1930,7 +2015,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
@@ -1942,7 +2027,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
@@ -1957,6 +2042,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1966,7 +2056,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Loại mẫu</t>
         </is>
       </c>
     </row>
@@ -1981,6 +2071,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1990,7 +2085,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Mẫu bệnh phẩm thu thập được</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2097,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Số mẫu bệnh phẩm/ số thu tuyển</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2109,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2121,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tải dữ liệu thành công.</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2133,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đăng nhập thành công.</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2145,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2157,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2169,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng thí nghiệm hợp lệ đầu tiên.</t>
         </is>
       </c>
     </row>
@@ -2089,6 +2184,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2098,7 +2198,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>10 kết hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
         </is>
       </c>
     </row>
@@ -2113,6 +2213,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2122,7 +2227,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ID bệnh nhân' sau là vấn đề(các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
         </is>
       </c>
     </row>
@@ -2137,6 +2242,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2149,6 +2259,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2161,6 +2276,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2173,6 +2293,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2185,6 +2310,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2197,6 +2327,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2206,7 +2341,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
         </is>
       </c>
     </row>
@@ -2221,6 +2356,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2230,7 +2370,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2382,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2394,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có dòng thiếu "orgname"</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2406,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có dòng thiếu "patid"</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2418,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có dòng thiếu "specdate"</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2430,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có dòng thiếu "specgroup"</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2442,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có dòng thiếu "specid"</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2454,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2466,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không có dữ liệu mô tả cho vi sinh vật này</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2478,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Không có dữ liệu khảo sát HAI</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2490,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
         </is>
       </c>
     </row>
@@ -2365,6 +2505,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2374,7 +2519,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Người sử dụng</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2531,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Các biến số trong Bảng:</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2543,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2555,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Chúng tôi không thể tải xuống tệp code phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
@@ -2425,6 +2570,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2434,7 +2584,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Xin chào</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2596,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Bạn muốn làm gì?</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2608,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Với vi sinh vật học</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2620,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Thông tin đăng nhập kết nối sai</t>
         </is>
       </c>
     </row>
@@ -2485,6 +2635,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2497,6 +2652,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2509,6 +2669,11 @@
           <t>TBT</t>
         </is>
       </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2518,7 +2683,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Theo dõi trên Twitter</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2695,602 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Ghi chép ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>What is ACORN?</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nghiên cứu ACORN là gì?</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>About</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Về chúng tôi</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Địa điểm</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>To log out, close the app.</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Để thoát ra, vui lòng đóng ứng dụng.</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>upload a local acorn file.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tải lên một tệp acorn của điểm nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>The REDCap dataset contains data.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Bộ dữ liệu REDCap có chứa dữ liệu.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Bộ dữ liệu REDCap trống. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Tên các cột của bộ dữ liệu REDCap không khớp. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>The REDCap dataset column names match.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Tên các cột của bộ dữ liệu REDCap trùng khớp.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Clinical data successfully provided.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Dữ liệu lâm sàng đã được cung cấp thành công.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Clinical data not provided</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Dữ liệu lâm sàng không được cung cấp</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lab data not provided</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Dữ liệu phòng thí nghiệm không được cung cấp</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>No .acorn has been generated</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Không có tệp .acorn được tạo</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>No .acorn has been saved</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Không có tệp .acorn được lưu</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Generate .acorn from clinical and lab data</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tạo tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng thí nghiệm</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Load existing .acorn from cloud</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Tải tệp .acorn sẵn có từ đám mây</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Load existing .acorn from local file</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Tải tệp .acorn sẵn có từ tệp tại điểm nghiên cứu</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Phát hiện vấn đề nghiêm trọng: không có dữ liệu hoặc định dạng dữ liệu sai trên máy chủ REDCap. Vui lòng báo cáo cho quản lý dữ liệu của ACORN. Cho tới khi tìm ra giải pháp, vui lòng chỉ sử dụng các tệp .acorn hiện có.</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu. Bây giờ bạn có thể tìm hiểu dữ liệu acorn.</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Specimens, Isolates</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Số mẫu, Chủng phân lập được</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Problem with credentials. Please contact ACORN support.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Vấn đề với thông tin xác thực. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Blood Culture</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Mẫu cấy máu</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Other Specimens:</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Các mẫu khác</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>No deduplication of isolates</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Không trùng lặp các mẫu phân lập</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Deduplication by patient-episode</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Sự trùng lặp đợt nhiễm trùng của bệnh nhân</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Deduplication by patient ID</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Sự trùng lặp ID của bệnh nhân</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Use heuristic for time unit</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Sử dụng heuristic cho đơn vị thời gian</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Display by month</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Hiển thị theo tháng</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Display by year</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Hiển thị theo năm</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Chúng tôi không thể tải xuống từ điển dữ liệu phòng xét nghiệm. Vui lòng liện hệ bộ phận hỗ trợ của ACORN</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>REDCap data could not be downloaded. Please try again.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Dữ liệu REDCap không thể tải xuống. Vui lòng thử lại</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>All records have an ACORN ID.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Tất cả các phiếu thu thập đều có một ACORN ID</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Not all records have an ACORN ID.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Không phải tất cả các phiếu thu thập đều có một ACORN ID</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Không có trường hợp điển hình ( một CAI/ HAI sớm nhưng không trùng lặp)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ID bệnh nhân' sau là các trường hợp không điển hình (một CAI / HAI sớm nhưng không trùng lặp)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>deleted</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,510 +490,510 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>ACORN Participating Countries</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Các nước tham gia vào nghiên cứu ACORN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>All 'orgname' are provided.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tất cả "orgname" được cung cấp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ACORN Participating Countries</t>
+          <t>All 'patid' are provided.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Các nước tham gia vào nghiên cứu ACORN</t>
+          <t>Tất cả "patid" được cung cấp</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All 'orgname' are provided.</t>
+          <t>All 'specdate' are provided.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tất cả "orgname" được cung cấp</t>
+          <t>Tất cả "specdate" được cung cấp</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>All 'patid' are provided.</t>
+          <t>All 'specdate' are today or before today.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tất cả "patid" được cung cấp</t>
+          <t>Tât cả "specdate" là ngày hôm này hoặc trước ngày hôm nay</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>All 'specdate' are provided.</t>
+          <t>All 'specgroup' are provided.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tất cả "specdate" được cung cấp</t>
+          <t>Tất cả "specgroup" được cung cấp</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All 'specdate' are today or before today.</t>
+          <t>All 'specid' are provided.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tât cả "specdate" là ngày hôm này hoặc trước ngày hôm nay</t>
+          <t>Tất cả "specid" được cung cấp</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>All 'specgroup' are provided.</t>
+          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tất cả "specgroup" được cung cấp</t>
+          <t>Tất cả các ngày thu tuyển của bệnh nhân HAI phải tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>All 'specid' are provided.</t>
+          <t>All Other Organisms</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tất cả "specid" được cung cấp</t>
+          <t>Tất cả các vi sinh vật khác</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
+          <t>All valid records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tất cả các ngày thu tuyển của bệnh nhân HAI phải tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>All Other Organisms</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tất cả các vi sinh vật khác</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>All valid records have an ACORN ID.</t>
+          <t>and generate enrolment log.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>và tạo nhật ký thu tuyển.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMR</t>
+          <t>Attempting to connect.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đang cố gắng kết nối.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>and generate enrolment log.</t>
+          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>và tạo nhật ký thu tuyển.</t>
+          <t>Mẫu cấy máu thu thập trong vòng 24h sau khi nhập viện (CAI)/ khởi phát triệu chứng (HAI)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Attempting to connect.</t>
+          <t>Blood Culture Contaminants</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Đang cố gắng kết nối.</t>
+          <t>Tạp nhiễm cấy máu</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
+          <t>Bloodstream Infection (BSI)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mẫu cấy máu thu thập trong vòng 24h sau khi nhập viện (CAI)/ khởi phát triệu chứng (HAI)</t>
+          <t>Nhiễm trùng huyết (BSI)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blood Culture Contaminants</t>
+          <t>Calculated age is consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tạp nhiễm cấy máu</t>
+          <t>Tuổi được tính toán nhất quán với "Phân loại tuổi"</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bloodstream Infection (BSI)</t>
+          <t>Calculated age isn't always consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nhiễm trùng huyết (BSI)</t>
+          <t>Tuổi được tính toán không nhất quán với "Phân loại tuổi"</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Calculated age is consistent with 'Age Category'</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tuổi được tính toán nhất quán với "Phân loại tuổi"</t>
+          <t>Hủy bỏ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Calculated age isn't always consistent with 'Age Category'</t>
+          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tuổi được tính toán không nhất quán với "Phân loại tuổi"</t>
+          <t>Cần thận trọng khi phiên giải về tỷ lệ và thông tin AMR khi có một số lượng nhỏ ca bệnh hoặc vi khuẩn được phân lập: ước tính điểm có thể không đáng tin cậy.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Clinical and day-28 outcomes are consistent.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hủy bỏ</t>
+          <t>Kêt quả lâm sàng và ngày 28 là nhất quán</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
+          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cần thận trọng khi phiên giải về tỷ lệ và thông tin AMR khi có một số lượng nhỏ ca bệnh hoặc vi khuẩn được phân lập: ước tính điểm có thể không đáng tin cậy.</t>
+          <t>Kết quả lâm sàng và ngày 28 là không nhất quán đối với một số bệnh nhân tử vong</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes are consistent.</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kêt quả lâm sàng và ngày 28 là nhất quán</t>
+          <t>Kết cục lâm sàng</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kết quả lâm sàng và ngày 28 là không nhất quán đối với một số bệnh nhân tử vong</t>
+          <t>Tình trạng kết cục lâm sàng</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kết cục lâm sàng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tình trạng kết cục lâm sàng</t>
+          <t>Kết hợp Nhạy cảm + Trung bình</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Cân nhắc lưu tệp .acorn trên đám mây vì mục đích bảo mật.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kết hợp Nhạy cảm + Trung bình</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cân nhắc lưu tệp .acorn trên đám mây vì mục đích bảo mật.</t>
+          <t>Không thể kết nối với máy chủ. Vui lòng kiểm tra kết nối internet</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Không thể kết nối với máy chủ. Vui lòng kiểm tra kết nối internet</t>
+          <t>Lỗi nghiêm trọng với dữ liệu lâm sàng.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lỗi nghiêm trọng với dữ liệu lâm sàng.</t>
+          <t>Kết quả nuôi cấy cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kết quả nuôi cấy cho mỗi loại mẫu</t>
+          <t>Quản lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quản lý dữ liệu</t>
+          <t>Ngày thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ngày thu tuyển</t>
+          <t>Ngày 28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ngày 28</t>
+          <t>Tình trạng ngày 28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tình trạng ngày 28</t>
+          <t>Chẩn đoán tại thời điểm thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chẩn đoán tại thời điểm thu tuyển</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Phân bố thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Phân bố thu tuyển</t>
+          <t>Tải xuống Sổ thu tuyển (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tải xuống Sổ thu tuyển (.xlsx)</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1238,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
@@ -1748,180 +1753,185 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cài đặt lại bộ lọc thu tuyển</t>
+          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
+          <t>Cài đặt lại bộ lọc thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kháng Carbapenems theo thời gian</t>
+          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kháng Fluoroquinolones theo thời gian</t>
+          <t>Kháng Carbapenems theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kháng Oxacillin theo thời gian</t>
+          <t>Kháng Fluoroquinolones theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G -meningitis theo thời gian</t>
+          <t>Kháng Oxacillin theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G theo thời gian</t>
+          <t>Kháng Penicillin G -meningitis theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
+          <t>Kháng Penicillin G theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lưu tệp .acorn</t>
+          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lưu dữ liệu acorn</t>
+          <t>Lưu tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lưu trên máy chủ</t>
+          <t>Lưu dữ liệu acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Xem Phân tích theo Khoa</t>
+          <t>Lưu trên máy chủ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Xem theo Tuần</t>
+          <t>Xem Phân tích theo Khoa</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
+          <t>Xem theo Tuần</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3035,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Specimens, Isolates</t>
+          <t>Select lab data format:</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Số mẫu, Chủng phân lập được</t>
+          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3042,12 +3052,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
+          <t>Specimens, Isolates</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Vấn đề với thông tin xác thực. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
+          <t>Số mẫu, Chủng phân lập được</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3059,12 +3069,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Blood Culture</t>
+          <t>Problem with credentials. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Mẫu cấy máu</t>
+          <t>Vấn đề với thông tin xác thực. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3076,12 +3086,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Other Specimens:</t>
+          <t>Blood Culture</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Các mẫu khác</t>
+          <t>Mẫu cấy máu</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3093,12 +3103,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>No deduplication of isolates</t>
+          <t>Other Specimens:</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Không trùng lặp các mẫu phân lập</t>
+          <t>Các mẫu khác</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3110,12 +3120,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Deduplication by patient-episode</t>
+          <t>No deduplication of isolates</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sự trùng lặp đợt nhiễm trùng của bệnh nhân</t>
+          <t>Không trùng lặp các mẫu phân lập</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3127,12 +3137,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Deduplication by patient ID</t>
+          <t>Deduplication by patient-episode</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sự trùng lặp ID của bệnh nhân</t>
+          <t>Sự trùng lặp đợt nhiễm trùng của bệnh nhân</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3144,12 +3154,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Use heuristic for time unit</t>
+          <t>Deduplication by patient ID</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sử dụng heuristic cho đơn vị thời gian</t>
+          <t>Sự trùng lặp ID của bệnh nhân</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3161,12 +3171,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Display by month</t>
+          <t>Use heuristic for time unit</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Hiển thị theo tháng</t>
+          <t>Sử dụng heuristic cho đơn vị thời gian</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3178,12 +3188,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Display by year</t>
+          <t>Display by month</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hiển thị theo năm</t>
+          <t>Hiển thị theo tháng</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3195,12 +3205,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
+          <t>Display by year</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống từ điển dữ liệu phòng xét nghiệm. Vui lòng liện hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Hiển thị theo năm</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3212,12 +3222,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
+          <t>HAI point prevalence by type of ward</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dữ liệu REDCap không thể tải xuống. Vui lòng thử lại</t>
+          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3229,12 +3239,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>All records have an ACORN ID.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tất cả các phiếu thu thập đều có một ACORN ID</t>
+          <t>Chúng tôi không thể tải xuống từ điển dữ liệu phòng xét nghiệm. Vui lòng liện hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3246,12 +3256,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Not all records have an ACORN ID.</t>
+          <t>REDCap data could not be downloaded. Please try again.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Không phải tất cả các phiếu thu thập đều có một ACORN ID</t>
+          <t>Dữ liệu REDCap không thể tải xuống. Vui lòng thử lại</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -3263,12 +3273,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+          <t>All records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Không có trường hợp điển hình ( một CAI/ HAI sớm nhưng không trùng lặp)</t>
+          <t>Tất cả các phiếu thu thập đều có một ACORN ID</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -3280,15 +3290,49 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
+          <t>Not all records have an ACORN ID.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Không phải tất cả các phiếu thu thập đều có một ACORN ID</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Không có trường hợp điển hình ( một CAI/ HAI sớm nhưng không trùng lặp)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
           <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>ID bệnh nhân' sau là các trường hợp không điển hình (một CAI / HAI sớm nhưng không trùng lặp)</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>

--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,144 +1306,144 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Số vi khuẩn cấy được</t>
+          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Số vi khuẩn cấy được</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng thí nghiệm đã được xử lý thành công!</t>
+          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
+          <t>Dữ liệu phòng thí nghiệm đã được xử lý thành công!</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng thí nghiệm chứa các cột tối thiểu.</t>
+          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng thí nghiệm không chứa các cột tối thiểu.</t>
+          <t>Tập dữ liệu phòng thí nghiệm chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ngôn ngữ</t>
+          <t>Tập dữ liệu phòng thí nghiệm không chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Đang tải tệp .acorn</t>
+          <t>Ngôn ngữ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đang tải tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1460,808 +1460,808 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Đang tải tệp .acorn được chọn</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Đang tải dữ liệu.</t>
+          <t>Đang tải tệp .acorn được chọn</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Đang tải dữ liệu.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Vi sinh vật học</t>
+          <t>Đăng nhập</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
+          <t>Vi sinh vật học</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Không có dữ liệu .acorn nào được tải.</t>
+          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Không cấy máu</t>
+          <t>Không có dữ liệu .acorn nào được tải.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Không có kết nối internet.</t>
+          <t>Không cấy máu</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Số lượng mẫu cho mỗi loại mẫu</t>
+          <t>Không có kết nối internet.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tỷ lệ chiếm chỗ của loại khoa mỗi tháng</t>
+          <t>Số lượng mẫu cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cấy máu phát triển một tạp nhiễm tiềm năng</t>
+          <t>Tỷ lệ chiếm chỗ của loại khoa mỗi tháng</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Các mẫu cấy ra vi khuẩn</t>
+          <t>Cấy máu phát triển một tạp nhiễm tiềm năng</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>thu tuyển với cấy máu</t>
+          <t>Các mẫu cấy ra vi khuẩn</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tác nhân gây bệnh mục tiêu</t>
+          <t>thu tuyển với cấy máu</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>tác nhân gây bệnh mục tiêu</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tổng quan</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mật khẩu</t>
+          <t>Tổng quan</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Phân bố tuổi bệnh nhân</t>
+          <t>Mật khẩu</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Bệnh nền của bệnh nhân</t>
+          <t>Phân bố tuổi bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Thu tuyển bệnh nhân</t>
+          <t>Bệnh nền của bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bệnh nhân được chuyển</t>
+          <t>Thu tuyển bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hãy đăng nhập</t>
+          <t>Bệnh nhân được chuyển</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu phòng thí nghiệm.</t>
+          <t>Hãy đăng nhập</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Đọc dữ liệu phòng thí nghiệm.</t>
+          <t>Xử lý dữ liệu phòng thí nghiệm.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đọc dữ liệu phòng thí nghiệm.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cài đặt lại bộ lọc thu tuyển</t>
+          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
+          <t>Cài đặt lại bộ lọc thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kháng Carbapenems theo thời gian</t>
+          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kháng Fluoroquinolones theo thời gian</t>
+          <t>Kháng Carbapenems theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kháng Oxacillin theo thời gian</t>
+          <t>Kháng Fluoroquinolones theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G -meningitis theo thời gian</t>
+          <t>Kháng Oxacillin theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G theo thời gian</t>
+          <t>Kháng Penicillin G -meningitis theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
+          <t>Kháng Penicillin G theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lưu tệp .acorn</t>
+          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lưu dữ liệu acorn</t>
+          <t>Lưu tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lưu trên máy chủ</t>
+          <t>Lưu dữ liệu acorn</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Xem Phân tích theo Khoa</t>
+          <t>Lưu trên máy chủ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Xem theo Tuần</t>
+          <t>Xem Phân tích theo Khoa</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Xem theo Tuần</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hiển thị các bệnh nền</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Hiển thị các bệnh nền</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
+          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
+          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
+          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
+          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Loại mẫu</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Loại mẫu</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mẫu bệnh phẩm thu thập được</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Số mẫu bệnh phẩm/ số thu tuyển</t>
+          <t>Mẫu bệnh phẩm thu thập được</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
+          <t>Số mẫu bệnh phẩm/ số thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tải dữ liệu thành công.</t>
+          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Đăng nhập thành công.</t>
+          <t>Tải dữ liệu thành công.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
+          <t>Đăng nhập thành công.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
+          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng thí nghiệm hợp lệ đầu tiên.</t>
+          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng thí nghiệm hợp lệ đầu tiên.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10 kết hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>10 kết hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ID bệnh nhân' sau là vấn đề(các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>ID bệnh nhân' sau là vấn đề(các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2278,7 +2278,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2295,7 +2295,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2329,7 +2329,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2346,315 +2346,315 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Không có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
+          <t>Không có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "orgname"</t>
+          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "patid"</t>
+          <t>Có dòng thiếu "orgname"</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specdate"</t>
+          <t>Có dòng thiếu "patid"</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specgroup"</t>
+          <t>Có dòng thiếu "specdate"</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specid"</t>
+          <t>Có dòng thiếu "specgroup"</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
+          <t>Có dòng thiếu "specid"</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Không có dữ liệu mô tả cho vi sinh vật này</t>
+          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Không có dữ liệu khảo sát HAI</t>
+          <t>Không có dữ liệu mô tả cho vi sinh vật này</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
+          <t>Không có dữ liệu khảo sát HAI</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Người sử dụng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Các biến số trong Bảng:</t>
+          <t>Người sử dụng</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
+          <t>Các biến số trong Bảng:</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống tệp code phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Chúng tôi không thể tải xuống tệp code phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Xin chào</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Bạn muốn làm gì?</t>
+          <t>Xin chào</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Với vi sinh vật học</t>
+          <t>Bạn muốn làm gì?</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Thông tin đăng nhập kết nối sai</t>
+          <t>Với vi sinh vật học</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Thông tin đăng nhập kết nối sai</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2671,7 +2671,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2688,53 +2688,53 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Theo dõi trên Twitter</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Records in Lab data and BSI forms:</t>
+          <t>Follow us on Twitter</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ghi chép ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
+          <t>Theo dõi trên Twitter</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>What is ACORN?</t>
+          <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nghiên cứu ACORN là gì?</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Ghi chép ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>About</t>
+          <t>What is ACORN?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Về chúng tôi</t>
+          <t>Nghiên cứu ACORN là gì?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -2746,12 +2746,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>About</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Địa điểm</t>
+          <t>Về chúng tôi</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -2763,12 +2763,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>To log out, close the app.</t>
+          <t>Site</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Để thoát ra, vui lòng đóng ứng dụng.</t>
+          <t>Địa điểm</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -2780,12 +2780,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>upload a local acorn file.</t>
+          <t>To log out, close the app.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tải lên một tệp acorn của điểm nghiên cứu.</t>
+          <t>Để thoát ra, vui lòng đóng ứng dụng.</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -2797,12 +2797,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>The REDCap dataset contains data.</t>
+          <t>upload a local acorn file.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bộ dữ liệu REDCap có chứa dữ liệu.</t>
+          <t>Tải lên một tệp acorn của điểm nghiên cứu.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
+          <t>The REDCap dataset contains data.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bộ dữ liệu REDCap trống. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
+          <t>Bộ dữ liệu REDCap có chứa dữ liệu.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -2831,12 +2831,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
+          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tên các cột của bộ dữ liệu REDCap không khớp. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
+          <t>Bộ dữ liệu REDCap trống. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -2848,12 +2848,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>The REDCap dataset column names match.</t>
+          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tên các cột của bộ dữ liệu REDCap trùng khớp.</t>
+          <t>Tên các cột của bộ dữ liệu REDCap không khớp. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -2865,12 +2865,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Clinical data successfully provided.</t>
+          <t>The REDCap dataset column names match.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Dữ liệu lâm sàng đã được cung cấp thành công.</t>
+          <t>Tên các cột của bộ dữ liệu REDCap trùng khớp.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -2882,12 +2882,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Clinical data not provided</t>
+          <t>Clinical data successfully provided.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Dữ liệu lâm sàng không được cung cấp</t>
+          <t>Dữ liệu lâm sàng đã được cung cấp thành công.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -2899,12 +2899,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>Clinical data not provided</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng thí nghiệm không được cung cấp</t>
+          <t>Dữ liệu lâm sàng không được cung cấp</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -2916,12 +2916,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Không có tệp .acorn được tạo</t>
+          <t>Dữ liệu phòng thí nghiệm không được cung cấp</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -2933,12 +2933,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Không có tệp .acorn được lưu</t>
+          <t>Không có tệp .acorn được tạo</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -2950,12 +2950,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Generate .acorn from clinical and lab data</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tạo tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng thí nghiệm</t>
+          <t>Không có tệp .acorn được lưu</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -2967,12 +2967,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Load existing .acorn from cloud</t>
+          <t>Generate .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn sẵn có từ đám mây</t>
+          <t>Tạo tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng thí nghiệm</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -2984,12 +2984,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Load existing .acorn from local file</t>
+          <t>Load existing .acorn from cloud</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn sẵn có từ tệp tại điểm nghiên cứu</t>
+          <t>Tải tệp .acorn sẵn có từ đám mây</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3001,12 +3001,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Load existing .acorn from local file</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Phát hiện vấn đề nghiêm trọng: không có dữ liệu hoặc định dạng dữ liệu sai trên máy chủ REDCap. Vui lòng báo cáo cho quản lý dữ liệu của ACORN. Cho tới khi tìm ra giải pháp, vui lòng chỉ sử dụng các tệp .acorn hiện có.</t>
+          <t>Tải tệp .acorn sẵn có từ tệp tại điểm nghiên cứu</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3018,12 +3018,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
+          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu. Bây giờ bạn có thể tìm hiểu dữ liệu acorn.</t>
+          <t>Phát hiện vấn đề nghiêm trọng: không có dữ liệu hoặc định dạng dữ liệu sai trên máy chủ REDCap. Vui lòng báo cáo cho quản lý dữ liệu của ACORN. Cho tới khi tìm ra giải pháp, vui lòng chỉ sử dụng các tệp .acorn hiện có.</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3035,12 +3035,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
+          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu. Bây giờ bạn có thể tìm hiểu dữ liệu acorn.</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3052,12 +3052,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Specimens, Isolates</t>
+          <t>Select lab data format:</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Số mẫu, Chủng phân lập được</t>
+          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3069,12 +3069,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
+          <t>Specimens, Isolates</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Vấn đề với thông tin xác thực. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
+          <t>Số mẫu, Chủng phân lập được</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3086,12 +3086,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Blood Culture</t>
+          <t>Problem with credentials. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Mẫu cấy máu</t>
+          <t>Vấn đề với thông tin xác thực. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3103,12 +3103,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Other Specimens:</t>
+          <t>Blood Culture</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Các mẫu khác</t>
+          <t>Mẫu cấy máu</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3120,12 +3120,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>No deduplication of isolates</t>
+          <t>Other Specimens:</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Không trùng lặp các mẫu phân lập</t>
+          <t>Các mẫu khác</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3137,12 +3137,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Deduplication by patient-episode</t>
+          <t>No deduplication of isolates</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sự trùng lặp đợt nhiễm trùng của bệnh nhân</t>
+          <t>Không trùng lặp các mẫu phân lập</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3154,12 +3154,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Deduplication by patient ID</t>
+          <t>Deduplication by patient-episode</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sự trùng lặp ID của bệnh nhân</t>
+          <t>Sự trùng lặp đợt nhiễm trùng của bệnh nhân</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3171,12 +3171,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Use heuristic for time unit</t>
+          <t>Deduplication by patient ID</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sử dụng heuristic cho đơn vị thời gian</t>
+          <t>Sự trùng lặp ID của bệnh nhân</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3188,12 +3188,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Display by month</t>
+          <t>Use heuristic for time unit</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hiển thị theo tháng</t>
+          <t>Sử dụng heuristic cho đơn vị thời gian</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3205,12 +3205,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Display by year</t>
+          <t>Display by month</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hiển thị theo năm</t>
+          <t>Hiển thị theo tháng</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3222,12 +3222,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t>Display by year</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
+          <t>Hiển thị theo năm</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3239,12 +3239,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
+          <t>HAI point prevalence by type of ward</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống từ điển dữ liệu phòng xét nghiệm. Vui lòng liện hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3256,12 +3256,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dữ liệu REDCap không thể tải xuống. Vui lòng thử lại</t>
+          <t>Chúng tôi không thể tải xuống từ điển dữ liệu phòng xét nghiệm. Vui lòng liện hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -3273,12 +3273,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>All records have an ACORN ID.</t>
+          <t>REDCap data could not be downloaded. Please try again.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tất cả các phiếu thu thập đều có một ACORN ID</t>
+          <t>Dữ liệu REDCap không thể tải xuống. Vui lòng thử lại</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Not all records have an ACORN ID.</t>
+          <t>All records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Không phải tất cả các phiếu thu thập đều có một ACORN ID</t>
+          <t>Tất cả các phiếu thu thập đều có một ACORN ID</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -3307,12 +3307,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+          <t>Not all records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Không có trường hợp điển hình ( một CAI/ HAI sớm nhưng không trùng lặp)</t>
+          <t>Không phải tất cả các phiếu thu thập đều có một ACORN ID</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -3324,15 +3324,32 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Không có trường hợp điển hình ( một CAI/ HAI sớm nhưng không trùng lặp)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
           <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>ID bệnh nhân' sau là các trường hợp không điển hình (một CAI / HAI sớm nhưng không trùng lặp)</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>

--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(2/4) Cung cấp dữ liệu phòng thí nghiệm</t>
+          <t>(2/4) Cung cấp dữ liệu phòng xét nghiệm</t>
         </is>
       </c>
     </row>
@@ -442,7 +442,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(3/4) Lưu dữ liệu lâm sàng và dữ liệu phòng thí nghiệm</t>
+          <t>(3/4) Gộp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
         </is>
       </c>
     </row>
@@ -478,12 +478,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>(Để đăng xuất, đóng ứng dụng)</t>
         </is>
       </c>
     </row>
@@ -603,12 +598,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tất cả bản ghi có hiệu lực đều có một mã định danh ACORN</t>
         </is>
       </c>
     </row>
@@ -620,12 +610,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>KKS</t>
         </is>
       </c>
     </row>
@@ -793,12 +778,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đồng kháng</t>
         </is>
       </c>
     </row>
@@ -810,7 +790,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kết hợp Nhạy cảm + Trung bình</t>
+          <t>Kết hợp Nhạy cảm + Trung gian</t>
         </is>
       </c>
     </row>
@@ -947,12 +927,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Bỏ qua</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1148,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tạo và tải tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1184,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Nhận bản phát hành mới nhất</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1196,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cấy ra vi khuẩn/ Cấy không ra vi khuẩn</t>
+          <t>Vi khuẩn mọc/Vi khuẩn không mọc</t>
         </is>
       </c>
     </row>
@@ -1272,12 +1237,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Các thanh ngang hiển thị kích thước của một tập hợp các kết quả nhạy kháng, các thanh dọc hiển thị số lượng các chủng phân lập kháng với loại kháng sinh tương ứng.</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1249,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Thông tin tệp .acorn đã được tải</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1261,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1273,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1290,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Số vi khuẩn cấy được</t>
+          <t>Chủng vi khuẩn phân lập được</t>
         </is>
       </c>
     </row>
@@ -1347,12 +1302,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đã phát hiện sự cố với dữ liệu REDCap. Vui lòng báo cáo cho người quản lý dữ liệu ACORN. Chỉ các tệp .acorn hiện có mới có thể được sử dụng cho đến khi xử lý.</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1326,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng thí nghiệm đã được xử lý thành công!</t>
+          <t>Dữ liệu phòng xét nghiệm đã được xử lý thành công!</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1350,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng thí nghiệm chứa các cột tối thiểu.</t>
+          <t>Tập dữ liệu phòng xét nghiệm chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1362,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng thí nghiệm không chứa các cột tối thiểu.</t>
+          <t>Tập dữ liệu phòng xét nghiệm không chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1386,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Đang tải tệp .acorn</t>
+          <t>Tải tệp .acorn</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1398,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tải tệp .acorn từ đám mây</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1410,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tải tệp .acorn từ file nội bộ</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1422,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Đang tải tệp .acorn được chọn</t>
+          <t>Tải tệp .acorn được chọn</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1482,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Không có dữ liệu .acorn nào được tải.</t>
+          <t>Không có tệp .acorn nào được tải.</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1590,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Chỉ những chủng vi khuẩn phân lập đã được thử nghiệm kháng lại tất cả các loại thuốc mới được đưa vào sơ đồ</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1686,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu phòng thí nghiệm.</t>
+          <t>Xử lý dữ liệu phòng xét nghiệm.</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1698,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Đọc dữ liệu phòng thí nghiệm.</t>
+          <t>Đọc dữ liệu phòng xét nghiệm.</t>
         </is>
       </c>
     </row>
@@ -1960,12 +1895,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Hiển thị tổ hợp kháng sinh</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1907,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hiển thị các bệnh nền</t>
+          <t>Hiển thị tổ hợp các bệnh nền</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1919,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đánh giá nhạy kháng</t>
         </is>
       </c>
     </row>
@@ -2066,12 +1991,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Một số bản ghi không có mã định danh ACORN. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2003,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Loại mẫu</t>
+          <t>Loại mẫu bệnh phẩm</t>
         </is>
       </c>
     </row>
@@ -2095,12 +2015,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Mẫu bệnh phẩm</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2111,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng thí nghiệm hợp lệ đầu tiên.</t>
+          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm hợp lệ đầu tiên.</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2140,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10 kết hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
+          <t>10 tổ hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
         </is>
       </c>
     </row>
@@ -2237,12 +2152,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Mã bệnh nhân' sau đây là các trường hợp không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp):</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2164,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ID bệnh nhân' sau là vấn đề(các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
+          <t>Mã bệnh nhân' sau là vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2176,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tập dữ liệu REDCap trống/có định dạng sai. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
     </row>
@@ -2283,12 +2188,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tập dữ liệu REDCap đã đúng định dạng</t>
         </is>
       </c>
     </row>
@@ -2300,12 +2200,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2212,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Có nhiều phiếu F02 với cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2224,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Không có ca không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp)</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2236,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Không có theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2260,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Không có phiếu F02 trùng cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2272,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Không có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
+          <t>Không có ca có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2368,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Không có dữ liệu mô tả cho vi sinh vật này</t>
+          <t>Không có dữ liệu hiển thị cho vi sinh vật này</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2404,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đã cập nhật Chỉ số bệnh mắc Charlson (uCCI)</t>
         </is>
       </c>
     </row>
@@ -2594,12 +2464,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Chúng tôi không thể tải xuống tệp từ điển dữ liệu phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2524,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Bạn đang chạy sai bảng ACORN</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2536,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Bạn có thể kiểm tra ở đây nếu không tìm thấy bản phát hành mới nhất</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2548,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Bảng ACORN đã được cập nhật</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2560,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Theo dõi trên Twitter</t>
+          <t>Theo dõi chúng tôi trên Twitter</t>
         </is>
       </c>
     </row>
@@ -2722,19 +2572,19 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ghi chép ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
+          <t>Bản ghi ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>What is ACORN?</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nghiên cứu ACORN là gì?</t>
+          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1 (hoặc các phiên bản sau đó)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -2746,12 +2596,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>About</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Về chúng tôi</t>
+          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -2763,12 +2613,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>HAI point prevalence by type of ward</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Địa điểm</t>
+          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -2780,12 +2630,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>To log out, close the app.</t>
+          <t>Select lab data format:</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Để thoát ra, vui lòng đóng ứng dụng.</t>
+          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -2797,559 +2647,15 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>upload a local acorn file.</t>
+          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tải lên một tệp acorn của điểm nghiên cứu.</t>
+          <t>Nhạy và trung gian luôn được kết hợp trong hiển thị đồng kháng</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>The REDCap dataset contains data.</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Bộ dữ liệu REDCap có chứa dữ liệu.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Bộ dữ liệu REDCap trống. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Tên các cột của bộ dữ liệu REDCap không khớp. Vui lòng liên hệ bộ phận hỗ trợ của ACORN.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>The REDCap dataset column names match.</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Tên các cột của bộ dữ liệu REDCap trùng khớp.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Clinical data successfully provided.</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Dữ liệu lâm sàng đã được cung cấp thành công.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Clinical data not provided</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Dữ liệu lâm sàng không được cung cấp</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Lab data not provided</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Dữ liệu phòng thí nghiệm không được cung cấp</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>No .acorn has been generated</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Không có tệp .acorn được tạo</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>No .acorn has been saved</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Không có tệp .acorn được lưu</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Generate .acorn from clinical and lab data</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Tạo tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng thí nghiệm</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Load existing .acorn from cloud</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Tải tệp .acorn sẵn có từ đám mây</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Load existing .acorn from local file</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Tải tệp .acorn sẵn có từ tệp tại điểm nghiên cứu</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Phát hiện vấn đề nghiêm trọng: không có dữ liệu hoặc định dạng dữ liệu sai trên máy chủ REDCap. Vui lòng báo cáo cho quản lý dữ liệu của ACORN. Cho tới khi tìm ra giải pháp, vui lòng chỉ sử dụng các tệp .acorn hiện có.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu. Bây giờ bạn có thể tìm hiểu dữ liệu acorn.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Select lab data format:</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Specimens, Isolates</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Số mẫu, Chủng phân lập được</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Vấn đề với thông tin xác thực. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Blood Culture</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Mẫu cấy máu</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Other Specimens:</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Các mẫu khác</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>No deduplication of isolates</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Không trùng lặp các mẫu phân lập</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Deduplication by patient-episode</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Sự trùng lặp đợt nhiễm trùng của bệnh nhân</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Deduplication by patient ID</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Sự trùng lặp ID của bệnh nhân</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Use heuristic for time unit</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Sử dụng heuristic cho đơn vị thời gian</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Display by month</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Hiển thị theo tháng</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Display by year</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Hiển thị theo năm</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>HAI point prevalence by type of ward</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Chúng tôi không thể tải xuống từ điển dữ liệu phòng xét nghiệm. Vui lòng liện hệ bộ phận hỗ trợ của ACORN</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Dữ liệu REDCap không thể tải xuống. Vui lòng thử lại</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>All records have an ACORN ID.</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Tất cả các phiếu thu thập đều có một ACORN ID</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Not all records have an ACORN ID.</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Không phải tất cả các phiếu thu thập đều có một ACORN ID</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Không có trường hợp điển hình ( một CAI/ HAI sớm nhưng không trùng lặp)</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>deleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>ID bệnh nhân' sau là các trường hợp không điển hình (một CAI / HAI sớm nhưng không trùng lặp)</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>

--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,1913 +749,1981 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Clinical data not provided</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kết cục lâm sàng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tình trạng kết cục lâm sàng</t>
+          <t>Kết cục lâm sàng</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Đồng kháng</t>
+          <t>Tình trạng kết cục lâm sàng</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kết hợp Nhạy cảm + Trung gian</t>
+          <t>Đồng kháng</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cân nhắc lưu tệp .acorn trên đám mây vì mục đích bảo mật.</t>
+          <t>Kết hợp Nhạy cảm + Trung gian</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Contains names of organisms before and after mapping.</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Cân nhắc lưu tệp .acorn trên đám mây vì mục đích bảo mật.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Không thể kết nối với máy chủ. Vui lòng kiểm tra kết nối internet</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lỗi nghiêm trọng với dữ liệu lâm sàng.</t>
+          <t>Không thể kết nối với máy chủ. Vui lòng kiểm tra kết nối internet</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kết quả nuôi cấy cho mỗi loại mẫu</t>
+          <t>Lỗi nghiêm trọng với dữ liệu lâm sàng.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Quản lý dữ liệu</t>
+          <t>Kết quả nuôi cấy cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ngày thu tuyển</t>
+          <t>Quản lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ngày 28</t>
+          <t>Ngày thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tình trạng ngày 28</t>
+          <t>Ngày 28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chẩn đoán tại thời điểm thu tuyển</t>
+          <t>Tình trạng ngày 28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bỏ qua</t>
+          <t>Chẩn đoán tại thời điểm thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Phân bố thu tuyển</t>
+          <t>Bỏ qua</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tải xuống Sổ thu tuyển (.xlsx)</t>
+          <t>Phân bố thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Lab Log (.xlsx)</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tải xuống Sổ thu tuyển (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Empiric Antibiotics Prescribed</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Điều trị kháng sinh theo kinh nghiệm</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enrolments</t>
+          <t>Empiric Antibiotics Prescribed</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Thu tuyển</t>
+          <t>Điều trị kháng sinh theo kinh nghiệm</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Enrolments by (type of) Ward</t>
+          <t>Enrolments</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Thu tuyển theo (loại) Khoa</t>
+          <t>Thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Enrolments with Blood Culture</t>
+          <t>Enrolments by (type of) Ward</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thu tuyển với mẫu cấy máu</t>
+          <t>Thu tuyển theo (loại) Khoa</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Error in combining clinical and lab data.</t>
+          <t>Enrolments with Blood Culture</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lỗi khi kết hợp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
+          <t>Thu tuyển với mẫu cấy máu</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
+          <t>Error in combining clinical and lab data.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mỗi Phiếu dữ liệu ngày 28 (F04) khớp chính xác với một bệnh nhân thu tuyển (F01).</t>
+          <t>Lỗi khi kết hợp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
+          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mỗi phiếu ra viện (F03) đều có phiếu nhiễm trùng (F02) tương ứng</t>
+          <t>Mỗi Phiếu dữ liệu ngày 28 (F04) khớp chính xác với một bệnh nhân thu tuyển (F01).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mỗi phiếu xuất viện (F03) có một Phiếu thu tuyển (F01) tương ứng</t>
+          <t>Mỗi phiếu ra viện (F03) đều có phiếu nhiễm trùng (F02) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mỗi Phiếu đợt nhiễm trùng (F02) có một phiếu thu tuyển tương ứng (F01)</t>
+          <t>Mỗi phiếu xuất viện (F03) có một Phiếu thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>File name:</t>
+          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tên tệp:</t>
+          <t>Mỗi Phiếu đợt nhiễm trùng (F02) có một phiếu thu tuyển tương ứng (F01)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
+          <t>File name:</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trang đầu tiên là nhật ký thu tuyển được truy xuất từ REDCap (theo bảng liền kề). Trang thứ hai là danh sách tất cả các yếu tố được gắn cờ cảnh báo.</t>
+          <t>Tên tệp:</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Theo dõi</t>
+          <t>Trang đầu tiên là nhật ký thu tuyển được truy xuất từ REDCap (theo bảng liền kề). Trang thứ hai là danh sách tất cả các yếu tố được gắn cờ cảnh báo.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>from cultures that have growth</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>từ mẫu cấy máu</t>
+          <t>Theo dõi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Generate .acorn file</t>
+          <t>from cultures that have growth</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tạo tệp .acorn</t>
+          <t>từ mẫu cấy máu</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Generate and load .acorn from clinical and lab data</t>
+          <t>Generate .acorn file</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tạo và tải tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
+          <t>Tạo tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Generating .acorn</t>
+          <t>Generate and load .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Đang tạo .acorn</t>
+          <t>Tạo và tải tệp .acorn từ dữ liệu lâm sàng và dữ liệu phòng xét nghiệm</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating .acorn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu từ REDCap</t>
+          <t>Đang tạo .acorn</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Nhận bản phát hành mới nhất</t>
+          <t>Lấy dữ liệu từ REDCap</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Vi khuẩn mọc/Vi khuẩn không mọc</t>
+          <t>Nhận bản phát hành mới nhất</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Vi khuẩn mọc/Vi khuẩn không mọc</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tỷ lệ hiện mắc HAI</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Các thanh ngang hiển thị kích thước của một tập hợp các kết quả nhạy kháng, các thanh dọc hiển thị số lượng các chủng phân lập kháng với loại kháng sinh tương ứng.</t>
+          <t>Tỷ lệ hiện mắc HAI</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Thông tin tệp .acorn đã được tải</t>
+          <t>Các thanh ngang hiển thị kích thước của một tập hợp các kết quả nhạy kháng, các thanh dọc hiển thị số lượng các chủng phân lập kháng với loại kháng sinh tương ứng.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
+          <t>Thông tin tệp .acorn đã được tải</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chủng vi khuẩn phân lập được</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Đã phát hiện sự cố với dữ liệu REDCap. Vui lòng báo cáo cho người quản lý dữ liệu ACORN. Chỉ các tệp .acorn hiện có mới có thể được sử dụng cho đến khi xử lý.</t>
+          <t>Chủng vi khuẩn phân lập được</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
+          <t>Đã phát hiện sự cố với dữ liệu REDCap. Vui lòng báo cáo cho người quản lý dữ liệu ACORN. Chỉ các tệp .acorn hiện có mới có thể được sử dụng cho đến khi xử lý.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng xét nghiệm đã được xử lý thành công!</t>
+          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng xét nghiệm chứa các cột tối thiểu.</t>
+          <t>Dữ liệu phòng xét nghiệm đã được xử lý thành công!</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng xét nghiệm không chứa các cột tối thiểu.</t>
+          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ngôn ngữ</t>
+          <t>Tập dữ liệu phòng xét nghiệm chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn</t>
+          <t>Tập dữ liệu phòng xét nghiệm không chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn từ đám mây</t>
+          <t>Ngôn ngữ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn từ file nội bộ</t>
+          <t>Tải tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn được chọn</t>
+          <t>Tải tệp .acorn từ đám mây</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Đang tải dữ liệu.</t>
+          <t>Tải tệp .acorn từ file nội bộ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Tải tệp .acorn được chọn</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Vi sinh vật học</t>
+          <t>Đang tải dữ liệu.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
+          <t>Đăng nhập</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Không có tệp .acorn nào được tải.</t>
+          <t>Vi sinh vật học</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Không cấy máu</t>
+          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Không có kết nối internet.</t>
+          <t>Không có tệp .acorn nào được tải.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Số lượng mẫu cho mỗi loại mẫu</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tỷ lệ chiếm chỗ của loại khoa mỗi tháng</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cấy máu phát triển một tạp nhiễm tiềm năng</t>
+          <t>Không cấy máu</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Các mẫu cấy ra vi khuẩn</t>
+          <t>Không có kết nối internet.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>thu tuyển với cấy máu</t>
+          <t>Số lượng mẫu cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tác nhân gây bệnh mục tiêu</t>
+          <t>Tỷ lệ chiếm chỗ của loại khoa mỗi tháng</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chỉ những chủng vi khuẩn phân lập đã được thử nghiệm kháng lại tất cả các loại thuốc mới được đưa vào sơ đồ</t>
+          <t>Cấy máu phát triển một tạp nhiễm tiềm năng</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tổng quan</t>
+          <t>Các mẫu cấy ra vi khuẩn</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mật khẩu</t>
+          <t>thu tuyển với cấy máu</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Phân bố tuổi bệnh nhân</t>
+          <t>tác nhân gây bệnh mục tiêu</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Bệnh nền của bệnh nhân</t>
+          <t>Chỉ những chủng vi khuẩn phân lập đã được thử nghiệm kháng lại tất cả các loại thuốc mới được đưa vào sơ đồ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Thu tuyển bệnh nhân</t>
+          <t>Tổng quan</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Bệnh nhân được chuyển</t>
+          <t>Mật khẩu</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hãy đăng nhập</t>
+          <t>Phân bố tuổi bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu phòng xét nghiệm.</t>
+          <t>Bệnh nền của bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Đọc dữ liệu phòng xét nghiệm.</t>
+          <t>Thu tuyển bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Bệnh nhân được chuyển</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
+          <t>Hãy đăng nhập</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cài đặt lại bộ lọc thu tuyển</t>
+          <t>Xử lý dữ liệu phòng xét nghiệm.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
+          <t>Đọc dữ liệu phòng xét nghiệm.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kháng Carbapenems theo thời gian</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kháng Fluoroquinolones theo thời gian</t>
+          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kháng Oxacillin theo thời gian</t>
+          <t>Cài đặt lại bộ lọc thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G -meningitis theo thời gian</t>
+          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G theo thời gian</t>
+          <t>Kháng Carbapenems theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
+          <t>Kháng Fluoroquinolones theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lưu tệp .acorn</t>
+          <t>Kháng Oxacillin theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lưu dữ liệu acorn</t>
+          <t>Kháng Penicillin G -meningitis theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Lưu trên máy chủ</t>
+          <t>Kháng Penicillin G theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Xem Phân tích theo Khoa</t>
+          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Xem theo Tuần</t>
+          <t>Lưu tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hiển thị tổ hợp kháng sinh</t>
+          <t>Lưu dữ liệu acorn</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hiển thị tổ hợp các bệnh nền</t>
+          <t>Lưu trên máy chủ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Đánh giá nhạy kháng</t>
+          <t>Xem Phân tích theo Khoa</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
+          <t>Xem theo Tuần</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
+          <t>Hiển thị tổ hợp kháng sinh</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
+          <t>Hiển thị tổ hợp các bệnh nền</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
+          <t>Đánh giá nhạy kháng</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
+          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Một số bản ghi không có mã định danh ACORN. Những phiếu này đã bị xóa</t>
+          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Loại mẫu bệnh phẩm</t>
+          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mẫu bệnh phẩm</t>
+          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mẫu bệnh phẩm thu thập được</t>
+          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Số mẫu bệnh phẩm/ số thu tuyển</t>
+          <t>Một số bản ghi không có mã định danh ACORN. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
+          <t>Loại mẫu bệnh phẩm</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tải dữ liệu thành công.</t>
+          <t>Mẫu bệnh phẩm</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Đăng nhập thành công.</t>
+          <t>Mẫu bệnh phẩm thu thập được</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
+          <t>Số mẫu bệnh phẩm/ số thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
+          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm hợp lệ đầu tiên.</t>
+          <t>Tải dữ liệu thành công.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đăng nhập thành công.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10 tổ hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
+          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mã bệnh nhân' sau đây là các trường hợp không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp):</t>
+          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mã bệnh nhân' sau là vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
+          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm hợp lệ đầu tiên.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tập dữ liệu REDCap trống/có định dạng sai. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tập dữ liệu REDCap đã đúng định dạng</t>
+          <t>10 tổ hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
+          <t>Mã bệnh nhân' sau đây là các trường hợp không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp):</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Có nhiều phiếu F02 với cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
+          <t>Mã bệnh nhân' sau là vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Không có ca không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp)</t>
+          <t>Tập dữ liệu REDCap trống/có định dạng sai. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Không có theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
+          <t>Tập dữ liệu REDCap đã đúng định dạng</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
+          <t>Theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Không có phiếu F02 trùng cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
+          <t>Có nhiều phiếu F02 với cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Không có ca có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
+          <t>Không có ca không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
+          <t>Không có theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "orgname"</t>
+          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "patid"</t>
+          <t>Không có phiếu F02 trùng cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specdate"</t>
+          <t>Không có ca có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specgroup"</t>
+          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specid"</t>
+          <t>Có dòng thiếu "orgname"</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
+          <t>Có dòng thiếu "patid"</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Không có dữ liệu hiển thị cho vi sinh vật này</t>
+          <t>Có dòng thiếu "specdate"</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Không có dữ liệu khảo sát HAI</t>
+          <t>Có dòng thiếu "specgroup"</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
+          <t>Có dòng thiếu "specid"</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Đã cập nhật Chỉ số bệnh mắc Charlson (uCCI)</t>
+          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Người sử dụng</t>
+          <t>Không có dữ liệu hiển thị cho vi sinh vật này</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Các biến số trong Bảng:</t>
+          <t>Không có dữ liệu khảo sát HAI</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
+          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống tệp code phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Đã cập nhật Chỉ số bệnh mắc Charlson (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống tệp từ điển dữ liệu phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Người sử dụng</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Xin chào</t>
+          <t>Các biến số trong Bảng:</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bạn muốn làm gì?</t>
+          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Với vi sinh vật học</t>
+          <t>Chúng tôi không thể tải xuống tệp code phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Thông tin đăng nhập kết nối sai</t>
+          <t>Chúng tôi không thể tải xuống tệp từ điển dữ liệu phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bạn đang chạy sai bảng ACORN</t>
+          <t>Xin chào</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bạn có thể kiểm tra ở đây nếu không tìm thấy bản phát hành mới nhất</t>
+          <t>Bạn muốn làm gì?</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Bảng ACORN đã được cập nhật</t>
+          <t>Với vi sinh vật học</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Theo dõi chúng tôi trên Twitter</t>
+          <t>Thông tin đăng nhập kết nối sai</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Records in Lab data and BSI forms:</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Bản ghi ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
+          <t>Bạn đang chạy sai bảng ACORN</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1 (hoặc các phiên bản sau đó)</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Bạn có thể kiểm tra ở đây nếu không tìm thấy bản phát hành mới nhất</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Bảng ACORN đã được cập nhật</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t>Follow us on Twitter</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Theo dõi chúng tôi trên Twitter</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Bản ghi ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1 (hoặc các phiên bản sau đó)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>HAI point prevalence by type of ward</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Select lab data format:</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Nhạy và trung gian luôn được kết hợp trong hiển thị đồng kháng</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>deleted</t>
         </is>

--- a/misc/translations/en_vn_elements_to_update.xlsx
+++ b/misc/translations/en_vn_elements_to_update.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tuổi được tính toán nhất quán với "Phân loại tuổi"</t>
+          <t>Tuổi được tính ra nhất quán với "Nhóm tuổi"</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tuổi được tính toán không nhất quán với "Phân loại tuổi"</t>
+          <t>Tuổi được tính ra không nhất quán với "Nhóm tuổi"</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Dữ liệu lâm sàng không được cung cấp</t>
         </is>
       </c>
     </row>
@@ -831,12 +826,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Bao gồm tên của các vi sinh vật trước và sau khi kết nối dữ liệu.</t>
         </is>
       </c>
     </row>
@@ -968,7 +958,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tải xuống Sổ thu tuyển (.xlsx)</t>
+          <t>Tải xuống những lỗi dữ liệu của file thu tuyển (.xlsx)</t>
         </is>
       </c>
     </row>
@@ -980,12 +970,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Tải xuống những lỗi dữ liệu của phòng xét nghiệm (.xlsx)</t>
         </is>
       </c>
     </row>
@@ -1184,1543 +1169,1513 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating lab file overview.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu từ REDCap</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nhận bản phát hành mới nhất</t>
+          <t>Lấy dữ liệu từ REDCap</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vi khuẩn mọc/Vi khuẩn không mọc</t>
+          <t>Nhận bản phát hành mới nhất</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Vi khuẩn mọc/Vi khuẩn không mọc</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tỷ lệ hiện mắc HAI</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Các thanh ngang hiển thị kích thước của một tập hợp các kết quả nhạy kháng, các thanh dọc hiển thị số lượng các chủng phân lập kháng với loại kháng sinh tương ứng.</t>
+          <t>Tỷ lệ hiện mắc HAI</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Thông tin tệp .acorn đã được tải</t>
+          <t>Các thanh ngang hiển thị kích thước của một tập hợp các kết quả nhạy kháng, các thanh dọc hiển thị số lượng các chủng phân lập kháng với loại kháng sinh tương ứng.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
+          <t>Thông tin tệp .acorn đã được tải</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chủng vi khuẩn phân lập được</t>
+          <t>Chẩn đoán giám sát ban đầu và cuối cùng</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Đã phát hiện sự cố với dữ liệu REDCap. Vui lòng báo cáo cho người quản lý dữ liệu ACORN. Chỉ các tệp .acorn hiện có mới có thể được sử dụng cho đến khi xử lý.</t>
+          <t>Chủng vi khuẩn phân lập được</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
+          <t>Đã phát hiện sự cố với dữ liệu REDCap. Vui lòng báo cáo cho người quản lý dữ liệu ACORN. Chỉ các tệp .acorn hiện có mới có thể được sử dụng cho đến khi sự cố được xử lý xong.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Thao tác có thể mất vài phút. Cửa sổ này sẽ đóng lại sau khi hoàn thành.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng xét nghiệm đã được xử lý thành công!</t>
+          <t>Dữ liệu phòng xét nghiệm không được cung cấp</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
+          <t>Dữ liệu phòng xét nghiệm đã được xử lý thành công!</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng xét nghiệm chứa các cột tối thiểu.</t>
+          <t>Dữ liệu phòng xét nghiệm được cung cấp thành công</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tập dữ liệu phòng xét nghiệm không chứa các cột tối thiểu.</t>
+          <t>Tập dữ liệu phòng xét nghiệm chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ngôn ngữ</t>
+          <t>Tập dữ liệu phòng xét nghiệm không chứa các cột tối thiểu.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab file overview (optional)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn từ đám mây</t>
+          <t>Ngôn ngữ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn từ file nội bộ</t>
+          <t>Tải tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tải tệp .acorn được chọn</t>
+          <t>Tải tệp .acorn từ đám mây</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Đang tải dữ liệu.</t>
+          <t>Tải tệp .acorn từ file nội bộ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Tải tệp .acorn được chọn</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vi sinh vật học</t>
+          <t>Đang tải dữ liệu.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
+          <t>Đăng nhập</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Không có tệp .acorn nào được tải.</t>
+          <t>Vi sinh vật học</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>10 loại vi sinh vậy thường gặp nhất và liệt kê đầy đủ trong bảng. Tạp nhiễm có màu đỏ.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Không có tệp .acorn nào được tải.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Không cấy máu</t>
+          <t>Không có file .acorn nào được tạo ra</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Không có kết nối internet.</t>
+          <t>Không có file .acorn nào được lưu lại</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Số lượng mẫu cho mỗi loại mẫu</t>
+          <t>Không cấy máu</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tỷ lệ chiếm chỗ của loại khoa mỗi tháng</t>
+          <t>Không có kết nối internet.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cấy máu phát triển một tạp nhiễm tiềm năng</t>
+          <t>Số lượng mẫu cho mỗi loại mẫu</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Các mẫu cấy ra vi khuẩn</t>
+          <t>Tỷ lệ sử dụng giường của loại khoa mỗi tháng</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>thu tuyển với cấy máu</t>
+          <t>của các mẫu cấy máu có khả năng bị tạp nhiễm</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tác nhân gây bệnh mục tiêu</t>
+          <t>của các mẫu cấy dương</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chỉ những chủng vi khuẩn phân lập đã được thử nghiệm kháng lại tất cả các loại thuốc mới được đưa vào sơ đồ</t>
+          <t>của các trường hợp thu tuyển có cấy máu</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tổng quan</t>
+          <t>của các tác nhân gây bệnh mục tiêu</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mật khẩu</t>
+          <t>Chỉ những chủng vi khuẩn phân lập đã được thử nghiệm kháng lại tất cả các loại thuốc mới được đưa vào sơ đồ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Phân bố tuổi bệnh nhân</t>
+          <t>Tổng quan</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Overview of lab file successfully generated!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Bệnh nền của bệnh nhân</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Thu tuyển bệnh nhân</t>
+          <t>Mật khẩu</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Bệnh nhân được chuyển</t>
+          <t>Phân bố tuổi bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hãy đăng nhập</t>
+          <t>Bệnh nền của bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu phòng xét nghiệm.</t>
+          <t>Thu tuyển bệnh nhân</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Đọc dữ liệu phòng xét nghiệm.</t>
+          <t>Bệnh nhân được chuyển</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Hãy đăng nhập</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Process Lab File</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
+          <t>TBT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cài đặt lại bộ lọc thu tuyển</t>
+          <t>Xử lý dữ liệu phòng xét nghiệm.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
+          <t>Đọc dữ liệu phòng xét nghiệm.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kháng Carbapenems theo thời gian</t>
+          <t>Loại bỏ những mẫu không được nuôi cấy</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Kháng Fluoroquinolones theo thời gian</t>
+          <t>Loại bỏ các tạp nhiễm trong quá trình cấy máu khỏi các hình ảnh trực quan</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Kháng Oxacillin theo thời gian</t>
+          <t>Cài đặt lại bộ lọc thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G -meningitis theo thời gian</t>
+          <t>Kháng Cephalosporins thế hệ 3 theo thời gian.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Kháng Penicillin G theo thời gian</t>
+          <t>Kháng Carbapenems theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
+          <t>Kháng Fluoroquinolones theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lưu tệp .acorn</t>
+          <t>Kháng Oxacillin theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lưu dữ liệu acorn</t>
+          <t>Kháng Penicillin G -meningitis theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lưu trên máy chủ</t>
+          <t>Kháng Penicillin G theo thời gian</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Xem Phân tích theo Khoa</t>
+          <t>Truy xuất dữ liệu từ máy chủ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Xem theo Tuần</t>
+          <t>Lưu tệp .acorn</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hiển thị tổ hợp kháng sinh</t>
+          <t>Lưu dữ liệu acorn</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hiển thị tổ hợp các bệnh nền</t>
+          <t>Lưu trên máy chủ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Đánh giá nhạy kháng</t>
+          <t>Xem Phân tích theo Khoa</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
+          <t>Xem theo Tuần</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
+          <t>Hiển thị tổ hợp kháng sinh</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
+          <t>Hiển thị tổ hợp các bệnh nền</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
+          <t>Đánh giá nhạy kháng</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
+          <t>Một số Phiếu dữ liệu ngày 28 (F04) không có một bệnh nhân thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Một số bản ghi không có mã định danh ACORN. Những phiếu này đã bị xóa</t>
+          <t>Một số ngày thu tuyển của bẹnh nhân HAI  không tương ứng với ngày thực hiện giám sát điểm đã được định sẵn</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Loại mẫu bệnh phẩm</t>
+          <t>Một số Phiếu ra viện (F03) không có phiếu đợt nhiễm trùng tương ứng (F02). Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mẫu bệnh phẩm</t>
+          <t>Mỗi phiếu xuất viện (F03) không có Phiếu thu tuyển (F01) tương ứng</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mẫu bệnh phẩm thu thập được</t>
+          <t>Một số Phiếu đợt nhiễm trùng (F02) không có phiếu thu tuyển (F01) tương ứng. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Số mẫu bệnh phẩm/ số thu tuyển</t>
+          <t>Một số bản ghi không có mã định danh ACORN. Những phiếu này đã bị xóa</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
+          <t>Loại mẫu bệnh phẩm</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tải dữ liệu thành công.</t>
+          <t>Mẫu bệnh phẩm</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Đăng nhập thành công.</t>
+          <t>Mẫu bệnh phẩm thu thập được</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
+          <t>Số mẫu bệnh phẩm của mỗi thu tuyển</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
+          <t>Kết hợp thành công dữ liệu lâm sàng và dữ liệu phòng xét nghiệm vào file .acorn</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm hợp lệ đầu tiên.</t>
+          <t>Tải dữ liệu thành công.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>new</t>
+          <t>Đăng nhập thành công.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>10 tổ hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
+          <t>Đã lưu thành công tệp .acorn trên đám mây. Bây giờ bạn có thể khám phá dữ liệu acorn.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mã bệnh nhân' sau đây là các trường hợp không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp):</t>
+          <t>Đã lưu thành công tệp .acorn tại điểm nghiên cứu.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mã bệnh nhân' sau là vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
+          <t>Cung cấp dữ liệu lâm sàng và dữ liệu phòng xét nghiệm hợp lệ đầu tiên.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tập dữ liệu REDCap trống/có định dạng sai. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
+          <t>Nhạy và trung gian luôn được gộp lại làm một trong các đồ thị thể hiện sự đồng kháng</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tập dữ liệu REDCap đã đúng định dạng</t>
+          <t>10 tổ hợp chẩn đoán ban đầu-cuối cùng phổ biến nhất:</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
+          <t>Mã bệnh nhân sau đây là các trường hợp không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp):</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Có nhiều phiếu F02 với cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
+          <t>Mã bệnh nhân sau là vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo):</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Không có ca không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp)</t>
+          <t>Tập dữ liệu REDCap trống/có định dạng sai. Vui lòng liên hệ với bộ phận hỗ trợ của ACORN.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Không có theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
+          <t>Tập dữ liệu REDCap đã đúng định dạng</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
+          <t>Theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Không có phiếu F02 trùng cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
+          <t>Có nhiều phiếu F02 với cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Không có ca có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
+          <t>Không có ca không điển hình (một HCAI / CAI có HAI sớm nhưng không trùng lặp)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
+          <t>Không có theo dõi ngày 28 thực hiện trước ngày 28 dự kiến</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "orgname"</t>
+          <t>Không có chủng vi khuẩn với kết quả Kháng sinh đồ có giá trị. Vui lòng liên hệ bộ phận hỗ trợ ACORN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "patid"</t>
+          <t>Không có phiếu F02 trùng cùng mã định danh ACORN, ngày nhập viện và ngày thu tuyển đợt nhiễm trùng</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specdate"</t>
+          <t>Không có ca có vấn đề (các cửa sổ thu thập mẫu bệnh phẩm chồng chéo)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specgroup"</t>
+          <t>Có dòng mà "specdate" sau ngày hôm nay</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Có dòng thiếu "specid"</t>
+          <t>Có dòng thiếu "orgname"</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
+          <t>Có dòng thiếu "patid"</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Không có dữ liệu hiển thị cho vi sinh vật này</t>
+          <t>Có dòng thiếu "specdate"</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Không có dữ liệu khảo sát HAI</t>
+          <t>Có dòng thiếu "specgroup"</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
+          <t>Có dòng thiếu "specid"</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Đã cập nhật Chỉ số bệnh mắc Charlson (uCCI)</t>
+          <t>Có một vấn đề nghiêm trọng với dữ liệu lâm sàng. Vấn đề này nên được chỉnh sửa trên REDCap.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Người sử dụng</t>
+          <t>Không có dữ liệu hiển thị cho vi sinh vật này</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Các biến số trong Bảng:</t>
+          <t>Không có dữ liệu khảo sát HAI</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
+          <t>Đang cố gắng lưu tệp .acorn trên máy chủ.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống tệp code phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Chỉ số bệnh mắc Charlson cập nhật (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chúng tôi không thể tải xuống tệp từ điển dữ liệu phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
+          <t>Người sử dụng</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Xin chào</t>
+          <t>Các biến số trong Bảng:</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bạn muốn làm gì?</t>
+          <t>Tỷ lệ số giường bệnh của khoa được lấp đầy</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Với vi sinh vật học</t>
+          <t>Chúng tôi không thể tải xuống tệp mã phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Thông tin đăng nhập kết nối sai</t>
+          <t>Chúng tôi không thể tải xuống tệp từ điển dữ liệu phòng xét nghiệm. Vui lòng liên hệ bộ phận hỗ trợ của ACORN</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Bạn đang chạy sai bảng ACORN</t>
+          <t>Xin chào</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Bạn có thể kiểm tra ở đây nếu không tìm thấy bản phát hành mới nhất</t>
+          <t>Bạn muốn làm gì?</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bảng ACORN đã được cập nhật</t>
+          <t>Với vi sinh vật học</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Theo dõi chúng tôi trên Twitter</t>
+          <t>Thông tin đăng nhập kết nối sai</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Records in Lab data and BSI forms:</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Bản ghi ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
+          <t>Bạn đang chạy bảng tổng hợp của ACORN</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1 (hoặc các phiên bản sau đó)</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Bạn có thể kiểm tra ở đây nếu không tìm thấy bản phát hành mới nhất</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dữ liệu ACORN không đúng định dạng. Chỉ khớp dữ liệu được tạo ra ở phiên bản 2.1</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Bảng tổng hợp của ACORN đã được cập nhật</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t>Follow us on Twitter</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tỷ lệ hiện mắc điểm HAI theo loại khoa</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Theo dõi chúng tôi trên Twitter</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lựa chọn định dạng dữ liệu phòng thí nghiệm:</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>deleted</t>
+          <t>Bản ghi ở dữ liệu phòng xét nghiệm và Phiếu BSI</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>HAI point prevalence by</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nhạy và trung gian luôn được kết hợp trong hiển thị đồng kháng</t>
+          <t>Tỉ lệ hiện mắc HAI theo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
